--- a/Excel_learning.xlsx
+++ b/Excel_learning.xlsx
@@ -1,25 +1,95 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PER\Personal\vscode\Learnings\Excel-Learnings\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89F2873E-4A7D-48C4-9699-8A42F09D23F1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
+  <si>
+    <t>example of Sum</t>
+  </si>
+  <si>
+    <t>total of the numbers used:</t>
+  </si>
+  <si>
+    <t>Number</t>
+  </si>
+  <si>
+    <t>[To reciprocate the same using the small square to drag]</t>
+  </si>
+  <si>
+    <t>[To create numbers based on a single formula example]</t>
+  </si>
+  <si>
+    <t>Number2</t>
+  </si>
+  <si>
+    <t>Date[ just give 1 Sep and excel recognises it directly]</t>
+  </si>
+  <si>
+    <t>Monthly Expenses</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Annual : cell address * 12</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Need</t>
+  </si>
+  <si>
+    <t>Want</t>
+  </si>
+  <si>
+    <t>Sum of Needs: [sumif using]</t>
+  </si>
+  <si>
+    <t>years of Investment:</t>
+  </si>
+  <si>
+    <t>Rate of Return:</t>
+  </si>
+  <si>
+    <t>Amount Invested:</t>
+  </si>
+  <si>
+    <t>End amount:[compound interest]</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -49,8 +119,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -330,13 +405,334 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A2:F24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="2" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>5</v>
+      </c>
+      <c r="C2">
+        <v>6</v>
+      </c>
+      <c r="D2">
+        <v>7</v>
+      </c>
+      <c r="E2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="58" x14ac:dyDescent="0.35">
+      <c r="D3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <f>SUM(B2:E2)</f>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="116" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" s="2">
+        <v>44440</v>
+      </c>
+      <c r="D7">
+        <v>3500</v>
+      </c>
+      <c r="E7">
+        <f>D7 * 12</f>
+        <v>42000</v>
+      </c>
+      <c r="F7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <f>A7+1</f>
+        <v>2</v>
+      </c>
+      <c r="B8">
+        <f>B7+1</f>
+        <v>2</v>
+      </c>
+      <c r="C8" s="2">
+        <v>44442</v>
+      </c>
+      <c r="D8">
+        <v>5000</v>
+      </c>
+      <c r="E8">
+        <f>D8 * 12</f>
+        <v>60000</v>
+      </c>
+      <c r="F8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <f t="shared" ref="A9:A21" si="0">A8+1</f>
+        <v>3</v>
+      </c>
+      <c r="B9">
+        <f t="shared" ref="B9:B21" si="1">B8+1</f>
+        <v>3</v>
+      </c>
+      <c r="C9" s="2">
+        <v>44449</v>
+      </c>
+      <c r="D9">
+        <v>4000</v>
+      </c>
+      <c r="E9">
+        <f>D9 * 12</f>
+        <v>48000</v>
+      </c>
+      <c r="F9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B10">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="C10" s="2">
+        <v>44449</v>
+      </c>
+      <c r="D10">
+        <v>600</v>
+      </c>
+      <c r="E10">
+        <f>D10 * 12</f>
+        <v>7200</v>
+      </c>
+      <c r="F10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B11">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="C11" s="2">
+        <v>44449</v>
+      </c>
+      <c r="D11">
+        <v>1005</v>
+      </c>
+      <c r="E11">
+        <f>D11 * 12</f>
+        <v>12060</v>
+      </c>
+      <c r="F11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B12">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="C12" s="2">
+        <v>44449</v>
+      </c>
+      <c r="D12">
+        <v>3005</v>
+      </c>
+      <c r="E12">
+        <f>D12 * 12</f>
+        <v>36060</v>
+      </c>
+      <c r="F12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B13">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="58" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B14">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14">
+        <f>SUMIF(F7:F12,"Need",E7:E12)</f>
+        <v>138120</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B15">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B16">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B17">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B18">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B19">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B20">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B21">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E21">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="D22" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E22" s="3">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="D23" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E23">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="D24" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E24">
+        <f>E23 * (1+E22)^E21</f>
+        <v>31058.482083442112</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>